--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,85 +22,133 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009664</t>
+  </si>
+  <si>
+    <t>009846</t>
+  </si>
+  <si>
+    <t>010405</t>
+  </si>
+  <si>
+    <t>009665</t>
+  </si>
+  <si>
     <t>457001</t>
   </si>
   <si>
-    <t>009846</t>
-  </si>
-  <si>
     <t>006240</t>
   </si>
   <si>
     <t>006241</t>
   </si>
   <si>
-    <t>010405</t>
-  </si>
-  <si>
-    <t>009664</t>
-  </si>
-  <si>
-    <t>009665</t>
+    <t>汇添富医疗积极成长一年持有期混合A</t>
+  </si>
+  <si>
+    <t>富兰克林国海港股通远见价值混合</t>
+  </si>
+  <si>
+    <t>惠升医药健康6个月持有期混合</t>
+  </si>
+  <si>
+    <t>汇添富医疗积极成长一年持有期混合C</t>
   </si>
   <si>
     <t>国富亚洲机会股票 (QDII)</t>
   </si>
   <si>
-    <t>富兰克林国海港股通远见价值混合</t>
-  </si>
-  <si>
     <t>中融医疗健康精选混合A</t>
   </si>
   <si>
     <t>中融医疗健康精选混合C</t>
   </si>
   <si>
-    <t>惠升医药健康6个月持有期混合</t>
-  </si>
-  <si>
-    <t>汇添富医疗积极成长一年持有期混合A</t>
-  </si>
-  <si>
-    <t>汇添富医疗积极成长一年持有期混合C</t>
+    <t>66.20</t>
+  </si>
+  <si>
+    <t>29.94</t>
+  </si>
+  <si>
+    <t>21.96</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>8.43</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>79.42</t>
+  </si>
+  <si>
+    <t>86.79</t>
+  </si>
+  <si>
+    <t>34.83</t>
   </si>
   <si>
     <t>88.07</t>
   </si>
   <si>
-    <t>86.79</t>
-  </si>
-  <si>
     <t>89.11</t>
   </si>
   <si>
-    <t>34.83</t>
-  </si>
-  <si>
-    <t>79.42</t>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>2.11</t>
   </si>
   <si>
     <t>3.37</t>
   </si>
   <si>
-    <t>2.70</t>
-  </si>
-  <si>
     <t>6.00</t>
   </si>
   <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>4.16</t>
+    <t>2.7539</t>
+  </si>
+  <si>
+    <t>0.8084</t>
+  </si>
+  <si>
+    <t>0.4634</t>
+  </si>
+  <si>
+    <t>0.2862</t>
+  </si>
+  <si>
+    <t>0.2841</t>
+  </si>
+  <si>
+    <t>0.0090</t>
+  </si>
+  <si>
+    <t>0.0048</t>
   </si>
 </sst>
 </file>
@@ -458,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,145 +528,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.93</v>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.87</v>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1710,13 +1775,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.61</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.93</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>11.87</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2106,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.61</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,323 +455,817 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009664</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>66.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7539</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009846</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海港股通远见价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>29.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8084</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010405</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>惠升医药健康6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4634</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.93</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009665</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2862</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.87</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>457001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国富亚洲机会股票 (QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2841</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006240</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006241</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1321,7 +1815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1329,51 +1823,51 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1388,60 +1882,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.39</t>
+          <t>66.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>79.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2556</t>
+          <t>2.7539</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.93</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.21</t>
+          <t>86.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9931</t>
+          <t>0.8084</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1449,113 +1943,113 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7578</t>
+          <t>0.4634</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.68</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.04</t>
+          <t>79.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7578</t>
+          <t>0.2862</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.80</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>88.07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7134</t>
+          <t>0.2841</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1563,576 +2057,82 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2500</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>82.07</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2041</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009960</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华多元机遇混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3257</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0347</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>470888</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富香港优势精选混合 (QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010783</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010784</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦沪港深龙头混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.93</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>11.87</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.61</v>
       </c>
     </row>
@@ -566,6 +583,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银产业精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -943,7 +1624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +2496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/09926-康方生物-B.xlsx
+++ b/数据整理/stocks/港股/09926-康方生物-B.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>6.93</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>11.87</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.61</v>
       </c>
     </row>
@@ -583,6 +600,1770 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>580008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东吴新产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011470</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴新产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012707</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013182</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012600</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银内核驱动股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013181</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005030</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1246,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1416,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1624,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1946,7 +3727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2496,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
